--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.319471203814727</v>
+        <v>0.3952656666666667</v>
       </c>
       <c r="N2">
-        <v>0.319471203814727</v>
+        <v>1.185797</v>
       </c>
       <c r="O2">
-        <v>0.03955911170355014</v>
+        <v>0.02469993039301214</v>
       </c>
       <c r="P2">
-        <v>0.03955911170355014</v>
+        <v>0.02469993039301213</v>
       </c>
       <c r="Q2">
-        <v>5.243261885683779</v>
+        <v>7.887835739595112</v>
       </c>
       <c r="R2">
-        <v>5.243261885683779</v>
+        <v>70.99052165635599</v>
       </c>
       <c r="S2">
-        <v>0.0003857719440401221</v>
+        <v>0.0002899115295515849</v>
       </c>
       <c r="T2">
-        <v>0.0003857719440401221</v>
+        <v>0.0002899115295515848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.4823218619874</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N3">
-        <v>3.4823218619874</v>
+        <v>10.452205</v>
       </c>
       <c r="O3">
-        <v>0.4312049345328942</v>
+        <v>0.2177174811148058</v>
       </c>
       <c r="P3">
-        <v>0.4312049345328942</v>
+        <v>0.2177174811148058</v>
       </c>
       <c r="Q3">
-        <v>57.15296175248022</v>
+        <v>69.52731045581555</v>
       </c>
       <c r="R3">
-        <v>57.15296175248022</v>
+        <v>625.7457941023399</v>
       </c>
       <c r="S3">
-        <v>0.004205017724387371</v>
+        <v>0.002555424527753674</v>
       </c>
       <c r="T3">
-        <v>0.004205017724387371</v>
+        <v>0.002555424527753673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.461562548017749</v>
+        <v>0.5492906666666667</v>
       </c>
       <c r="N4">
-        <v>0.461562548017749</v>
+        <v>1.647872</v>
       </c>
       <c r="O4">
-        <v>0.05715383476564736</v>
+        <v>0.03432486647933305</v>
       </c>
       <c r="P4">
-        <v>0.05715383476564736</v>
+        <v>0.03432486647933305</v>
       </c>
       <c r="Q4">
-        <v>7.57530972113547</v>
+        <v>10.96152516482845</v>
       </c>
       <c r="R4">
-        <v>7.57530972113547</v>
+        <v>98.653726483456</v>
       </c>
       <c r="S4">
-        <v>0.000557351896880764</v>
+        <v>0.0004028826957946675</v>
       </c>
       <c r="T4">
-        <v>0.000557351896880764</v>
+        <v>0.0004028826957946675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.81243754879699</v>
+        <v>11.574079</v>
       </c>
       <c r="N5">
-        <v>3.81243754879699</v>
+        <v>34.722237</v>
       </c>
       <c r="O5">
-        <v>0.4720821189979084</v>
+        <v>0.7232577220128491</v>
       </c>
       <c r="P5">
-        <v>0.4720821189979084</v>
+        <v>0.723257722012849</v>
       </c>
       <c r="Q5">
-        <v>62.57092424126481</v>
+        <v>230.9698050908307</v>
       </c>
       <c r="R5">
-        <v>62.57092424126481</v>
+        <v>2078.728245817476</v>
       </c>
       <c r="S5">
-        <v>0.004603643230342298</v>
+        <v>0.008489123212592571</v>
       </c>
       <c r="T5">
-        <v>0.004603643230342298</v>
+        <v>0.00848912321259257</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.319471203814727</v>
+        <v>0.3952656666666667</v>
       </c>
       <c r="N6">
-        <v>0.319471203814727</v>
+        <v>1.185797</v>
       </c>
       <c r="O6">
-        <v>0.03955911170355014</v>
+        <v>0.02469993039301214</v>
       </c>
       <c r="P6">
-        <v>0.03955911170355014</v>
+        <v>0.02469993039301213</v>
       </c>
       <c r="Q6">
-        <v>520.1033184539372</v>
+        <v>647.1856081648789</v>
       </c>
       <c r="R6">
-        <v>520.1033184539372</v>
+        <v>5824.67047348391</v>
       </c>
       <c r="S6">
-        <v>0.03826649758035655</v>
+        <v>0.0237868251521784</v>
       </c>
       <c r="T6">
-        <v>0.03826649758035655</v>
+        <v>0.0237868251521784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.4823218619874</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N7">
-        <v>3.4823218619874</v>
+        <v>10.452205</v>
       </c>
       <c r="O7">
-        <v>0.4312049345328942</v>
+        <v>0.2177174811148058</v>
       </c>
       <c r="P7">
-        <v>0.4312049345328942</v>
+        <v>0.2177174811148058</v>
       </c>
       <c r="Q7">
-        <v>5669.265757657151</v>
+        <v>5704.616093301794</v>
       </c>
       <c r="R7">
-        <v>5669.265757657151</v>
+        <v>51341.54483971615</v>
       </c>
       <c r="S7">
-        <v>0.4171150936753715</v>
+        <v>0.2096689170150749</v>
       </c>
       <c r="T7">
-        <v>0.4171150936753715</v>
+        <v>0.2096689170150749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.461562548017749</v>
+        <v>0.5492906666666667</v>
       </c>
       <c r="N8">
-        <v>0.461562548017749</v>
+        <v>1.647872</v>
       </c>
       <c r="O8">
-        <v>0.05715383476564736</v>
+        <v>0.03432486647933305</v>
       </c>
       <c r="P8">
-        <v>0.05715383476564736</v>
+        <v>0.03432486647933305</v>
       </c>
       <c r="Q8">
-        <v>751.4298942489529</v>
+        <v>899.3774166217955</v>
       </c>
       <c r="R8">
-        <v>751.4298942489529</v>
+        <v>8094.39674959616</v>
       </c>
       <c r="S8">
-        <v>0.05528630410504058</v>
+        <v>0.03305594729719381</v>
       </c>
       <c r="T8">
-        <v>0.05528630410504058</v>
+        <v>0.03305594729719381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.81243754879699</v>
+        <v>11.574079</v>
       </c>
       <c r="N9">
-        <v>3.81243754879699</v>
+        <v>34.722237</v>
       </c>
       <c r="O9">
-        <v>0.4720821189979084</v>
+        <v>0.7232577220128491</v>
       </c>
       <c r="P9">
-        <v>0.4720821189979084</v>
+        <v>0.723257722012849</v>
       </c>
       <c r="Q9">
-        <v>6206.698434321618</v>
+        <v>18950.74120586412</v>
       </c>
       <c r="R9">
-        <v>6206.698434321618</v>
+        <v>170556.6708527771</v>
       </c>
       <c r="S9">
-        <v>0.4566565953183894</v>
+        <v>0.6965203828408231</v>
       </c>
       <c r="T9">
-        <v>0.4566565953183894</v>
+        <v>0.696520382840823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.319471203814727</v>
+        <v>0.3952656666666667</v>
       </c>
       <c r="N10">
-        <v>0.319471203814727</v>
+        <v>1.185797</v>
       </c>
       <c r="O10">
-        <v>0.03955911170355014</v>
+        <v>0.02469993039301214</v>
       </c>
       <c r="P10">
-        <v>0.03955911170355014</v>
+        <v>0.02469993039301213</v>
       </c>
       <c r="Q10">
-        <v>4.23941676650781</v>
+        <v>6.91747302100289</v>
       </c>
       <c r="R10">
-        <v>4.23941676650781</v>
+        <v>62.25725718902601</v>
       </c>
       <c r="S10">
-        <v>0.0003119142402704392</v>
+        <v>0.0002542465703340967</v>
       </c>
       <c r="T10">
-        <v>0.0003119142402704392</v>
+        <v>0.0002542465703340968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.4823218619874</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N11">
-        <v>3.4823218619874</v>
+        <v>10.452205</v>
       </c>
       <c r="O11">
-        <v>0.4312049345328942</v>
+        <v>0.2177174811148058</v>
       </c>
       <c r="P11">
-        <v>0.4312049345328942</v>
+        <v>0.2177174811148058</v>
       </c>
       <c r="Q11">
-        <v>46.21078053923036</v>
+        <v>60.97405044665445</v>
       </c>
       <c r="R11">
-        <v>46.21078053923036</v>
+        <v>548.76645401989</v>
       </c>
       <c r="S11">
-        <v>0.003399948931199633</v>
+        <v>0.002241055824630099</v>
       </c>
       <c r="T11">
-        <v>0.003399948931199633</v>
+        <v>0.002241055824630099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.461562548017749</v>
+        <v>0.5492906666666667</v>
       </c>
       <c r="N12">
-        <v>0.461562548017749</v>
+        <v>1.647872</v>
       </c>
       <c r="O12">
-        <v>0.05715383476564736</v>
+        <v>0.03432486647933305</v>
       </c>
       <c r="P12">
-        <v>0.05715383476564736</v>
+        <v>0.03432486647933305</v>
       </c>
       <c r="Q12">
-        <v>6.124983978190741</v>
+        <v>9.613036718819558</v>
       </c>
       <c r="R12">
-        <v>6.124983978190741</v>
+        <v>86.51733046937601</v>
       </c>
       <c r="S12">
-        <v>0.0004506444705599712</v>
+        <v>0.0003533200070075979</v>
       </c>
       <c r="T12">
-        <v>0.0004506444705599712</v>
+        <v>0.000353320007007598</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.81243754879699</v>
+        <v>11.574079</v>
       </c>
       <c r="N13">
-        <v>3.81243754879699</v>
+        <v>34.722237</v>
       </c>
       <c r="O13">
-        <v>0.4720821189979084</v>
+        <v>0.7232577220128491</v>
       </c>
       <c r="P13">
-        <v>0.4720821189979084</v>
+        <v>0.723257722012849</v>
       </c>
       <c r="Q13">
-        <v>50.59145072432609</v>
+        <v>202.5558655287273</v>
       </c>
       <c r="R13">
-        <v>50.59145072432609</v>
+        <v>1823.002789758546</v>
       </c>
       <c r="S13">
-        <v>0.003722255863477267</v>
+        <v>0.007444790020195426</v>
       </c>
       <c r="T13">
-        <v>0.003722255863477267</v>
+        <v>0.007444790020195426</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.319471203814727</v>
+        <v>0.3952656666666667</v>
       </c>
       <c r="N14">
-        <v>0.319471203814727</v>
+        <v>1.185797</v>
       </c>
       <c r="O14">
-        <v>0.03955911170355014</v>
+        <v>0.02469993039301214</v>
       </c>
       <c r="P14">
-        <v>0.03955911170355014</v>
+        <v>0.02469993039301213</v>
       </c>
       <c r="Q14">
-        <v>8.086028636518247</v>
+        <v>10.03821562009889</v>
       </c>
       <c r="R14">
-        <v>8.086028636518247</v>
+        <v>90.34394058088999</v>
       </c>
       <c r="S14">
-        <v>0.0005949279388830188</v>
+        <v>0.0003689471409480521</v>
       </c>
       <c r="T14">
-        <v>0.0005949279388830188</v>
+        <v>0.000368947140948052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.4823218619874</v>
+        <v>3.484068333333333</v>
       </c>
       <c r="N15">
-        <v>3.4823218619874</v>
+        <v>10.452205</v>
       </c>
       <c r="O15">
-        <v>0.4312049345328942</v>
+        <v>0.2177174811148058</v>
       </c>
       <c r="P15">
-        <v>0.4312049345328942</v>
+        <v>0.2177174811148058</v>
       </c>
       <c r="Q15">
-        <v>88.13988228476954</v>
+        <v>88.48182909509444</v>
       </c>
       <c r="R15">
-        <v>88.13988228476954</v>
+        <v>796.3364618558498</v>
       </c>
       <c r="S15">
-        <v>0.006484874201935623</v>
+        <v>0.003252083747347087</v>
       </c>
       <c r="T15">
-        <v>0.006484874201935623</v>
+        <v>0.003252083747347087</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.461562548017749</v>
+        <v>0.5492906666666667</v>
       </c>
       <c r="N16">
-        <v>0.461562548017749</v>
+        <v>1.647872</v>
       </c>
       <c r="O16">
-        <v>0.05715383476564736</v>
+        <v>0.03432486647933305</v>
       </c>
       <c r="P16">
-        <v>0.05715383476564736</v>
+        <v>0.03432486647933305</v>
       </c>
       <c r="Q16">
-        <v>11.68245505776568</v>
+        <v>13.94985351651555</v>
       </c>
       <c r="R16">
-        <v>11.68245505776568</v>
+        <v>125.54868164864</v>
       </c>
       <c r="S16">
-        <v>0.0008595342931660355</v>
+        <v>0.0005127164793369762</v>
       </c>
       <c r="T16">
-        <v>0.0008595342931660355</v>
+        <v>0.0005127164793369762</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.81243754879699</v>
+        <v>11.574079</v>
       </c>
       <c r="N17">
-        <v>3.81243754879699</v>
+        <v>34.722237</v>
       </c>
       <c r="O17">
-        <v>0.4720821189979084</v>
+        <v>0.7232577220128491</v>
       </c>
       <c r="P17">
-        <v>0.4720821189979084</v>
+        <v>0.723257722012849</v>
       </c>
       <c r="Q17">
-        <v>96.49532986512259</v>
+        <v>293.9367377537433</v>
       </c>
       <c r="R17">
-        <v>96.49532986512259</v>
+        <v>2645.43063978369</v>
       </c>
       <c r="S17">
-        <v>0.007099624585699407</v>
+        <v>0.01080342593923805</v>
       </c>
       <c r="T17">
-        <v>0.007099624585699407</v>
+        <v>0.01080342593923805</v>
       </c>
     </row>
   </sheetData>
